--- a/New (Semester LOL)Task/Vehicle/test/TDD Documentation.xlsx
+++ b/New (Semester LOL)Task/Vehicle/test/TDD Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\GITHUB\MyJavaJourney\New (Semester LOL)Task\Vehicle\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2378E-497E-4BE7-BDBB-77977ACF0412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24394A6A-3BB3-4E60-AF1D-8632EFDDD469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>BIKE TEST SCENERIOS</t>
   </si>
@@ -126,12 +126,81 @@
       <t>OFF</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">I accelerate </t>
+  </si>
+  <si>
+    <t>Bike is Off</t>
+  </si>
+  <si>
+    <t>Bike is on</t>
+  </si>
+  <si>
+    <t>Bike is On</t>
+  </si>
+  <si>
+    <t>I accelerate Twice</t>
+  </si>
+  <si>
+    <t>Speed = 2</t>
+  </si>
+  <si>
+    <t>Speed = 0</t>
+  </si>
+  <si>
+    <t>Speed = 1</t>
+  </si>
+  <si>
+    <t>I accelerate</t>
+  </si>
+  <si>
+    <t>Speed = 23</t>
+  </si>
+  <si>
+    <t>(Gear Two) Speed = 21</t>
+  </si>
+  <si>
+    <t>(Gear Three) Speed = 31</t>
+  </si>
+  <si>
+    <t>Speed = 34</t>
+  </si>
+  <si>
+    <t>(Gear Four) Speed = 43</t>
+  </si>
+  <si>
+    <t>Speed = 47</t>
+  </si>
+  <si>
+    <t>(Gear One) Speed = 3</t>
+  </si>
+  <si>
+    <t>I decelerate</t>
+  </si>
+  <si>
+    <t>(Gear One) Speed = 0</t>
+  </si>
+  <si>
+    <t>(Gear Two) Speed = 25</t>
+  </si>
+  <si>
+    <t>(Gear Three) Speed = 34</t>
+  </si>
+  <si>
+    <t>Speed = 31</t>
+  </si>
+  <si>
+    <t>(Gear Four) Speed = 47</t>
+  </si>
+  <si>
+    <t>Speed = 43</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +228,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -582,7 +656,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -655,89 +729,155 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
@@ -752,6 +892,7 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>